--- a/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc.xlsx
+++ b/ig/ch-lab-report/StructureDefinition-ch-lab-observation-cbc.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>2.0.0-ballot</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-22T14:17:25+00:00</t>
+    <t>2025-12-16T10:40:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -392,7 +392,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages</t>
+    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -818,7 +818,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
+    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
 </t>
   </si>
   <si>
@@ -847,7 +847,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
+    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
 </t>
   </si>
   <si>
@@ -930,7 +930,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">value:$this}
@@ -1126,7 +1126,7 @@
     <t>Aa resource (or, for logical models, the URI of the logical model).</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/resource-types</t>
+    <t>http://hl7.org/fhir/ValueSet/resource-types|4.0.1</t>
   </si>
   <si>
     <t>Reference.type</t>
@@ -1171,7 +1171,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Resource)
+    <t xml:space="preserve">Reference(Resource|4.0.1)
 </t>
   </si>
   <si>
@@ -1194,7 +1194,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter)
+    <t xml:space="preserve">Reference(Encounter|4.0.1)
 </t>
   </si>
   <si>
@@ -1519,7 +1519,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -1551,7 +1551,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1610,7 +1610,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1689,7 +1689,7 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|DeviceMetric)
+    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
 </t>
   </si>
   <si>
@@ -1769,7 +1769,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity}
+    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
 </t>
   </si>
   <si>
@@ -1819,7 +1819,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1852,7 +1852,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1911,7 +1911,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(DocumentReference|ImagingStudy|Media|QuestionnaireResponse|Observation|MolecularSequence)
+    <t xml:space="preserve">Reference(DocumentReference|4.0.1|ImagingStudy|4.0.1|Media|4.0.1|QuestionnaireResponse|4.0.1|Observation|4.0.1|MolecularSequence|4.0.1)
 </t>
   </si>
   <si>
@@ -2009,7 +2009,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -2157,7 +2157,7 @@
     <t>uncertainty</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-uncertainty}
+    <t xml:space="preserve">Extension {iso21090-uncertainty|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -2179,7 +2179,7 @@
     <t>uncertaintyType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {iso21090-uncertaintyType}
+    <t xml:space="preserve">Extension {iso21090-uncertaintyType|5.3.0-ballot-tc1}
 </t>
   </si>
   <si>
@@ -18584,7 +18584,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="123" hidden="true">
+    <row r="123">
       <c r="A123" t="s" s="2">
         <v>648</v>
       </c>
@@ -19658,7 +19658,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="132" hidden="true">
+    <row r="132">
       <c r="A132" t="s" s="2">
         <v>659</v>
       </c>
@@ -19900,7 +19900,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="134" hidden="true">
+    <row r="134">
       <c r="A134" t="s" s="2">
         <v>664</v>
       </c>
@@ -20506,7 +20506,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="139" hidden="true">
+    <row r="139">
       <c r="A139" t="s" s="2">
         <v>684</v>
       </c>
@@ -20750,7 +20750,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="141" hidden="true">
+    <row r="141">
       <c r="A141" t="s" s="2">
         <v>705</v>
       </c>
@@ -20870,7 +20870,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="142" hidden="true">
+    <row r="142">
       <c r="A142" t="s" s="2">
         <v>713</v>
       </c>
@@ -20990,7 +20990,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="143" hidden="true">
+    <row r="143">
       <c r="A143" t="s" s="2">
         <v>722</v>
       </c>
@@ -22468,7 +22468,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="155" hidden="true">
+    <row r="155">
       <c r="A155" t="s" s="2">
         <v>742</v>
       </c>
@@ -23542,7 +23542,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="164" hidden="true">
+    <row r="164">
       <c r="A164" t="s" s="2">
         <v>753</v>
       </c>
@@ -23784,7 +23784,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="166" hidden="true">
+    <row r="166">
       <c r="A166" t="s" s="2">
         <v>756</v>
       </c>
@@ -24390,7 +24390,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="171" hidden="true">
+    <row r="171">
       <c r="A171" t="s" s="2">
         <v>761</v>
       </c>
@@ -24634,7 +24634,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="173" hidden="true">
+    <row r="173">
       <c r="A173" t="s" s="2">
         <v>763</v>
       </c>
@@ -24754,7 +24754,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="174" hidden="true">
+    <row r="174">
       <c r="A174" t="s" s="2">
         <v>764</v>
       </c>
@@ -24874,7 +24874,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="175" hidden="true">
+    <row r="175">
       <c r="A175" t="s" s="2">
         <v>765</v>
       </c>
@@ -26352,7 +26352,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="187" hidden="true">
+    <row r="187">
       <c r="A187" t="s" s="2">
         <v>778</v>
       </c>
@@ -27426,7 +27426,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="196" hidden="true">
+    <row r="196">
       <c r="A196" t="s" s="2">
         <v>788</v>
       </c>
@@ -27668,7 +27668,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="198" hidden="true">
+    <row r="198">
       <c r="A198" t="s" s="2">
         <v>792</v>
       </c>
@@ -28274,7 +28274,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="203" hidden="true">
+    <row r="203">
       <c r="A203" t="s" s="2">
         <v>797</v>
       </c>
@@ -28518,7 +28518,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="205" hidden="true">
+    <row r="205">
       <c r="A205" t="s" s="2">
         <v>799</v>
       </c>
@@ -28638,7 +28638,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="206" hidden="true">
+    <row r="206">
       <c r="A206" t="s" s="2">
         <v>800</v>
       </c>
@@ -28758,7 +28758,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="207" hidden="true">
+    <row r="207">
       <c r="A207" t="s" s="2">
         <v>801</v>
       </c>
@@ -30236,7 +30236,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="219" hidden="true">
+    <row r="219">
       <c r="A219" t="s" s="2">
         <v>814</v>
       </c>
@@ -31310,7 +31310,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="228" hidden="true">
+    <row r="228">
       <c r="A228" t="s" s="2">
         <v>824</v>
       </c>
@@ -31552,7 +31552,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="230" hidden="true">
+    <row r="230">
       <c r="A230" t="s" s="2">
         <v>828</v>
       </c>
@@ -32158,7 +32158,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="235" hidden="true">
+    <row r="235">
       <c r="A235" t="s" s="2">
         <v>833</v>
       </c>
@@ -32402,7 +32402,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="237" hidden="true">
+    <row r="237">
       <c r="A237" t="s" s="2">
         <v>835</v>
       </c>
@@ -32522,7 +32522,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="238" hidden="true">
+    <row r="238">
       <c r="A238" t="s" s="2">
         <v>836</v>
       </c>
@@ -32642,7 +32642,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="239" hidden="true">
+    <row r="239">
       <c r="A239" t="s" s="2">
         <v>837</v>
       </c>
@@ -34120,7 +34120,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="251" hidden="true">
+    <row r="251">
       <c r="A251" t="s" s="2">
         <v>850</v>
       </c>
@@ -35194,7 +35194,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="260" hidden="true">
+    <row r="260">
       <c r="A260" t="s" s="2">
         <v>861</v>
       </c>
@@ -35436,7 +35436,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="262" hidden="true">
+    <row r="262">
       <c r="A262" t="s" s="2">
         <v>865</v>
       </c>
@@ -36042,7 +36042,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="267" hidden="true">
+    <row r="267">
       <c r="A267" t="s" s="2">
         <v>870</v>
       </c>
@@ -36286,7 +36286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="269" hidden="true">
+    <row r="269">
       <c r="A269" t="s" s="2">
         <v>872</v>
       </c>
@@ -36406,7 +36406,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="270" hidden="true">
+    <row r="270">
       <c r="A270" t="s" s="2">
         <v>873</v>
       </c>
@@ -36526,7 +36526,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="271" hidden="true">
+    <row r="271">
       <c r="A271" t="s" s="2">
         <v>874</v>
       </c>
@@ -38004,7 +38004,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="283" hidden="true">
+    <row r="283">
       <c r="A283" t="s" s="2">
         <v>887</v>
       </c>
@@ -39078,7 +39078,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="292" hidden="true">
+    <row r="292">
       <c r="A292" t="s" s="2">
         <v>898</v>
       </c>
@@ -39320,7 +39320,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="294" hidden="true">
+    <row r="294">
       <c r="A294" t="s" s="2">
         <v>902</v>
       </c>
@@ -39926,7 +39926,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="299" hidden="true">
+    <row r="299">
       <c r="A299" t="s" s="2">
         <v>907</v>
       </c>
@@ -40170,7 +40170,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="301" hidden="true">
+    <row r="301">
       <c r="A301" t="s" s="2">
         <v>909</v>
       </c>
@@ -40290,7 +40290,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="302" hidden="true">
+    <row r="302">
       <c r="A302" t="s" s="2">
         <v>910</v>
       </c>
@@ -40410,7 +40410,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="303" hidden="true">
+    <row r="303">
       <c r="A303" t="s" s="2">
         <v>911</v>
       </c>
@@ -41888,7 +41888,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="315" hidden="true">
+    <row r="315">
       <c r="A315" t="s" s="2">
         <v>924</v>
       </c>
@@ -42962,7 +42962,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="324" hidden="true">
+    <row r="324">
       <c r="A324" t="s" s="2">
         <v>935</v>
       </c>
@@ -43204,7 +43204,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="326" hidden="true">
+    <row r="326">
       <c r="A326" t="s" s="2">
         <v>939</v>
       </c>
@@ -43810,7 +43810,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="331" hidden="true">
+    <row r="331">
       <c r="A331" t="s" s="2">
         <v>944</v>
       </c>
@@ -44054,7 +44054,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="333" hidden="true">
+    <row r="333">
       <c r="A333" t="s" s="2">
         <v>946</v>
       </c>
@@ -44174,7 +44174,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="334" hidden="true">
+    <row r="334">
       <c r="A334" t="s" s="2">
         <v>947</v>
       </c>
@@ -44294,7 +44294,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="335" hidden="true">
+    <row r="335">
       <c r="A335" t="s" s="2">
         <v>948</v>
       </c>
@@ -45772,7 +45772,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="347" hidden="true">
+    <row r="347">
       <c r="A347" t="s" s="2">
         <v>960</v>
       </c>
@@ -46846,7 +46846,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="356" hidden="true">
+    <row r="356">
       <c r="A356" t="s" s="2">
         <v>971</v>
       </c>
@@ -47086,7 +47086,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="358" hidden="true">
+    <row r="358">
       <c r="A358" t="s" s="2">
         <v>975</v>
       </c>
@@ -47692,7 +47692,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="363" hidden="true">
+    <row r="363">
       <c r="A363" t="s" s="2">
         <v>980</v>
       </c>
@@ -47936,7 +47936,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="365" hidden="true">
+    <row r="365">
       <c r="A365" t="s" s="2">
         <v>982</v>
       </c>
@@ -48056,7 +48056,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="366" hidden="true">
+    <row r="366">
       <c r="A366" t="s" s="2">
         <v>983</v>
       </c>
@@ -48176,7 +48176,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="367" hidden="true">
+    <row r="367">
       <c r="A367" t="s" s="2">
         <v>984</v>
       </c>
@@ -49654,7 +49654,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="379" hidden="true">
+    <row r="379">
       <c r="A379" t="s" s="2">
         <v>996</v>
       </c>
@@ -50728,7 +50728,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="388" hidden="true">
+    <row r="388">
       <c r="A388" t="s" s="2">
         <v>1007</v>
       </c>
@@ -50970,7 +50970,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="390" hidden="true">
+    <row r="390">
       <c r="A390" t="s" s="2">
         <v>1011</v>
       </c>
@@ -51576,7 +51576,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="395" hidden="true">
+    <row r="395">
       <c r="A395" t="s" s="2">
         <v>1016</v>
       </c>
@@ -51820,7 +51820,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="397" hidden="true">
+    <row r="397">
       <c r="A397" t="s" s="2">
         <v>1018</v>
       </c>
@@ -51940,7 +51940,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="398" hidden="true">
+    <row r="398">
       <c r="A398" t="s" s="2">
         <v>1019</v>
       </c>
@@ -52060,7 +52060,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="399" hidden="true">
+    <row r="399">
       <c r="A399" t="s" s="2">
         <v>1020</v>
       </c>
@@ -53538,7 +53538,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="411" hidden="true">
+    <row r="411">
       <c r="A411" t="s" s="2">
         <v>1033</v>
       </c>
@@ -54612,7 +54612,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="420" hidden="true">
+    <row r="420">
       <c r="A420" t="s" s="2">
         <v>1044</v>
       </c>
@@ -54854,7 +54854,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="422" hidden="true">
+    <row r="422">
       <c r="A422" t="s" s="2">
         <v>1048</v>
       </c>
@@ -55460,7 +55460,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="427" hidden="true">
+    <row r="427">
       <c r="A427" t="s" s="2">
         <v>1053</v>
       </c>
@@ -55704,7 +55704,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="429" hidden="true">
+    <row r="429">
       <c r="A429" t="s" s="2">
         <v>1055</v>
       </c>
@@ -55824,7 +55824,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="430" hidden="true">
+    <row r="430">
       <c r="A430" t="s" s="2">
         <v>1056</v>
       </c>
@@ -55944,7 +55944,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="431" hidden="true">
+    <row r="431">
       <c r="A431" t="s" s="2">
         <v>1057</v>
       </c>
@@ -57422,7 +57422,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="443" hidden="true">
+    <row r="443">
       <c r="A443" t="s" s="2">
         <v>1069</v>
       </c>
@@ -58496,7 +58496,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="452" hidden="true">
+    <row r="452">
       <c r="A452" t="s" s="2">
         <v>1080</v>
       </c>
@@ -58738,7 +58738,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="454" hidden="true">
+    <row r="454">
       <c r="A454" t="s" s="2">
         <v>1084</v>
       </c>
@@ -59344,7 +59344,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="459" hidden="true">
+    <row r="459">
       <c r="A459" t="s" s="2">
         <v>1089</v>
       </c>
@@ -59588,7 +59588,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="461" hidden="true">
+    <row r="461">
       <c r="A461" t="s" s="2">
         <v>1091</v>
       </c>
@@ -59708,7 +59708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="462" hidden="true">
+    <row r="462">
       <c r="A462" t="s" s="2">
         <v>1092</v>
       </c>
@@ -59828,7 +59828,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="463" hidden="true">
+    <row r="463">
       <c r="A463" t="s" s="2">
         <v>1093</v>
       </c>
@@ -61308,12 +61308,12 @@
     </row>
   </sheetData>
   <autoFilter ref="A1:AP474">
-    <filterColumn colId="6">
+    <filterColumn colId="7">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
       </customFilters>
     </filterColumn>
-    <filterColumn colId="26">
+    <filterColumn colId="27">
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
